--- a/TestData/Data/Repports/Metier.xlsx
+++ b/TestData/Data/Repports/Metier.xlsx
@@ -22,37 +22,37 @@
     <x:t>MessageType</x:t>
   </x:si>
   <x:si>
-    <x:t>Mise à jour de l'entity DEVELOPPEMENT INFORMATIQUE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Update_Success</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity RESEAUX INFORMATIQUE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity Développement Multimédias</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity INFOGRAPHIE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity Français</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity ANGLAIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity ARABE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity BUREAUTIQUE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity GESTION  / COMPTABILITE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity CLE</x:t>
+    <x:t>Insertion de l'entity DEVELOPPEMENT INFORMATIQUE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Add_Success</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity RESEAUX INFORMATIQUE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity Développement Multimédias</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity INFOGRAPHIE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity Français</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity ANGLAIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity ARABE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity BUREAUTIQUE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity GESTION  / COMPTABILITE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity CLE</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -420,7 +420,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="50.190625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="48.270625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="16.175425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
